--- a/docs/barrerasConceptual.xlsx
+++ b/docs/barrerasConceptual.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="960" windowWidth="19800" windowHeight="15080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5160" yWindow="960" windowWidth="19800" windowHeight="15080" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CorrPalabrasEducacion" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="CorrPalabrasLaboral" sheetId="2" r:id="rId2"/>
+    <sheet name="CorrPalabrasSexualidad" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="161">
   <si>
     <t>pública</t>
   </si>
@@ -279,18 +280,12 @@
     <t>centralizada</t>
   </si>
   <si>
-    <t>creditos</t>
-  </si>
-  <si>
     <t>interna</t>
   </si>
   <si>
     <t>limita</t>
   </si>
   <si>
-    <t>movilizacion</t>
-  </si>
-  <si>
     <t>ocupacional</t>
   </si>
   <si>
@@ -333,27 +328,15 @@
     <t>propia</t>
   </si>
   <si>
-    <t>psicodinamica</t>
-  </si>
-  <si>
     <t>coincide</t>
   </si>
   <si>
-    <t>contextualizacion</t>
-  </si>
-  <si>
-    <t>dinamica</t>
-  </si>
-  <si>
     <t>gratuita</t>
   </si>
   <si>
     <t>maestros</t>
   </si>
   <si>
-    <t>medotodologicas</t>
-  </si>
-  <si>
     <t>pandillas</t>
   </si>
   <si>
@@ -415,13 +398,127 @@
   </si>
   <si>
     <t>oferta</t>
+  </si>
+  <si>
+    <t>contextualización</t>
+  </si>
+  <si>
+    <t>metodológicas</t>
+  </si>
+  <si>
+    <t>dinámica</t>
+  </si>
+  <si>
+    <t>psicodinámica</t>
+  </si>
+  <si>
+    <t>movilización</t>
+  </si>
+  <si>
+    <t>crédito</t>
+  </si>
+  <si>
+    <t>desconocimiento</t>
+  </si>
+  <si>
+    <t>brindan</t>
+  </si>
+  <si>
+    <t>formativos</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>riesgos</t>
+  </si>
+  <si>
+    <t>comunicación</t>
+  </si>
+  <si>
+    <t>medios</t>
+  </si>
+  <si>
+    <t>influencia</t>
+  </si>
+  <si>
+    <t>confianza</t>
+  </si>
+  <si>
+    <t>forman</t>
+  </si>
+  <si>
+    <t>informan</t>
+  </si>
+  <si>
+    <t>población</t>
+  </si>
+  <si>
+    <t>hijos</t>
+  </si>
+  <si>
+    <t>orientación</t>
+  </si>
+  <si>
+    <t>falta</t>
+  </si>
+  <si>
+    <t>puntual</t>
+  </si>
+  <si>
+    <t>vocacional</t>
+  </si>
+  <si>
+    <t>mitos</t>
+  </si>
+  <si>
+    <t>cuestiones</t>
+  </si>
+  <si>
+    <t>fortalecimiento</t>
+  </si>
+  <si>
+    <t>matrimonio</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>pertenencia</t>
+  </si>
+  <si>
+    <t>religión</t>
+  </si>
+  <si>
+    <t>información</t>
+  </si>
+  <si>
+    <t>cientifica</t>
+  </si>
+  <si>
+    <t>integral</t>
+  </si>
+  <si>
+    <t>alternativa</t>
+  </si>
+  <si>
+    <t>limitado</t>
+  </si>
+  <si>
+    <t>locales</t>
+  </si>
+  <si>
+    <t>puestos</t>
+  </si>
+  <si>
+    <t>reproducción</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,18 +542,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -467,7 +577,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -484,31 +594,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -787,53 +920,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C28"/>
+    <sheetView showGridLines="0" zoomScale="103" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1640625" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.83203125" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -841,199 +974,200 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0.48</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>0.44</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <v>0.38</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>0.45</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="10">
         <v>0.43</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>0.43</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="10">
         <v>0.35</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="2:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="3" t="s">
         <v>71</v>
       </c>
       <c r="L13" s="4" t="s">
@@ -1041,420 +1175,449 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="7">
         <v>0.37</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>0.4</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>0.42</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <v>0.37</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>0.26</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="10">
         <v>0.34</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="10">
         <v>0.37</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>0.26</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="10">
         <v>0.31</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="10">
         <v>0.37</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>0.26</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="10">
         <v>0.37</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>0.26</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="10">
         <v>0.36</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <v>0.26</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="10">
         <v>0.36</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>0.26</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>0.26</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>0.26</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>0.26</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="9">
         <v>0.26</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="10">
         <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>0.26</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>0.26</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="9">
         <v>0.26</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="9">
         <v>0.26</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="9">
         <v>0.26</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="9">
         <v>0.26</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="10">
         <v>0.26</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1466,35 +1629,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -1502,456 +1673,1045 @@
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>0.49</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>0.37</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="8">
+      <c r="F9" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="9">
         <v>0.37</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="9">
         <v>0.34</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="8">
+      <c r="G10" s="5"/>
+      <c r="H10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="9">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9">
         <v>0.34</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.37</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.35</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0.34</v>
-      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="3" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="3" t="s">
         <v>70</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="3" t="s">
         <v>71</v>
       </c>
       <c r="L13" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="L19" s="9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="9">
         <v>0.4</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.34</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:M25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.34</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C11" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="C14" s="10">
         <v>0.27</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="10">
         <v>0.27</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="2:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="8">
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="10">
         <v>0.27</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0.34</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="L19" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="10">
         <v>0.27</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0.27</v>
-      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
